--- a/รายการจัดส่งซีเรียสซีเรียล-2021-12-07.xlsx
+++ b/รายการจัดส่งซีเรียสซีเรียล-2021-12-07.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>เลขที่</t>
   </si>
@@ -32,6 +32,90 @@
   </si>
   <si>
     <t>จำนวน(กล่อง)</t>
+  </si>
+  <si>
+    <t>2021120712174800</t>
+  </si>
+  <si>
+    <t>2021-12-07T19:19:52.001+07:00</t>
+  </si>
+  <si>
+    <t> นาง นงเยาว์ ดิลกธราดล</t>
+  </si>
+  <si>
+    <t>0899799025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ร้านเนรมิต 16 คูหาสวรรค์ คูหาสวรรค์ เมือง พัทลุง 93000</t>
+  </si>
+  <si>
+    <t>2021120712123792</t>
+  </si>
+  <si>
+    <t>2021-12-07T19:14:33.030+07:00</t>
+  </si>
+  <si>
+    <t> นาย วิศิษฎ สุขพรสวรรค์</t>
+  </si>
+  <si>
+    <t>0918942651</t>
+  </si>
+  <si>
+    <t>อู่เบสท์ 2/31 ซอย 3 ยะรัง ตะลุโบะ เมือง ปัตตานี 94000</t>
+  </si>
+  <si>
+    <t>2021120712023750</t>
+  </si>
+  <si>
+    <t>2021-12-07T19:08:28.975+07:00</t>
+  </si>
+  <si>
+    <t> นาย ภูริพัฒน์ สุขพรสวรรค์</t>
+  </si>
+  <si>
+    <t>0904802096</t>
+  </si>
+  <si>
+    <t>บริษัท Wood Work (ฟาร์มเห็ด) 105/1 หมู่ 3  หนองช้างแล่น ห้วยยอด ตรัง 92130</t>
+  </si>
+  <si>
+    <t>2021120711485756</t>
+  </si>
+  <si>
+    <t>2021-12-07T18:49:40.555+07:00</t>
+  </si>
+  <si>
+    <t> นาย วิทยา ทองประภา</t>
+  </si>
+  <si>
+    <t>0881774444</t>
+  </si>
+  <si>
+    <t>วงยองบ่าง SoundTech</t>
+  </si>
+  <si>
+    <t>302 หมู่ 2  โคกมั่งงอย อำเภอคอนสวรรค์ ชัยภูมิ 36140</t>
+  </si>
+  <si>
+    <t>2021120703180907</t>
+  </si>
+  <si>
+    <t>2021-12-07T10:27:15.697+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว นุชจรี ทะอมร</t>
+  </si>
+  <si>
+    <t>0931596904</t>
+  </si>
+  <si>
+    <t>nuctchari</t>
+  </si>
+  <si>
+    <t>303/52หมู่7  สมอแข อำเภอเมืองพิษณุโลก พิษณุโลก 65000</t>
   </si>
 </sst>
 </file>
@@ -71,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -100,6 +184,121 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
